--- a/MyFormInput.xlsx
+++ b/MyFormInput.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://startos-my.sharepoint.com/personal/ted_lasseter_startos_onmicrosoft_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://startos-my.sharepoint.com/personal/ted_lasseter_startos_onmicrosoft_com/Documents/Documents/GIThub/DNCPowerAutomate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="267" documentId="8_{C3D457DE-B0BD-4909-BD96-F53C67B8E24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38EEF14E-354D-45B8-B96A-A4A2780E61DE}"/>
+  <xr:revisionPtr revIDLastSave="273" documentId="8_{C3D457DE-B0BD-4909-BD96-F53C67B8E24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72FD4149-D7B6-4AC9-B30D-421A62E3B492}"/>
   <bookViews>
-    <workbookView xWindow="3744" yWindow="24" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,15 +105,6 @@
     <t>Take2Another telemarketer. Can you send a letter?</t>
   </si>
   <si>
-    <t>4/4/2023</t>
-  </si>
-  <si>
-    <t>4/5/2023</t>
-  </si>
-  <si>
-    <t>4/6/2023</t>
-  </si>
-  <si>
     <t>not sure of English</t>
   </si>
   <si>
@@ -156,7 +147,16 @@
     <t>CAs finest telemarketers. Can you send a letter?</t>
   </si>
   <si>
-    <t>206-355-4862</t>
+    <t>222-834-8337</t>
+  </si>
+  <si>
+    <t>4/4/2022</t>
+  </si>
+  <si>
+    <t>4/5/2022</t>
+  </si>
+  <si>
+    <t>4/6/2022</t>
   </si>
 </sst>
 </file>
@@ -510,7 +510,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,10 +596,10 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C2" s="5">
         <v>14</v>
@@ -617,13 +617,13 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
         <v>8</v>
@@ -632,22 +632,22 @@
         <v>10</v>
       </c>
       <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
         <v>36</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>37</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>38</v>
-      </c>
-      <c r="P2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" t="s">
-        <v>41</v>
       </c>
       <c r="S2" s="7">
         <v>98133</v>
@@ -658,10 +658,10 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C3" s="5">
         <v>13</v>
@@ -679,13 +679,13 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
         <v>8</v>
@@ -694,22 +694,22 @@
         <v>10</v>
       </c>
       <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>37</v>
       </c>
-      <c r="O3" t="s">
+      <c r="R3" t="s">
         <v>38</v>
-      </c>
-      <c r="P3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" t="s">
-        <v>41</v>
       </c>
       <c r="S3" s="7">
         <v>98133</v>
@@ -720,10 +720,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="C4" s="5">
         <v>13</v>
@@ -741,13 +741,13 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
         <v>8</v>
@@ -756,28 +756,28 @@
         <v>10</v>
       </c>
       <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" t="s">
         <v>36</v>
       </c>
-      <c r="N4" t="s">
+      <c r="Q4" t="s">
         <v>37</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
         <v>38</v>
-      </c>
-      <c r="P4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" t="s">
-        <v>41</v>
       </c>
       <c r="S4" s="7">
         <v>98133</v>
       </c>
       <c r="T4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/MyFormInput.xlsx
+++ b/MyFormInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://startos-my.sharepoint.com/personal/ted_lasseter_startos_onmicrosoft_com/Documents/Documents/GIThub/DNCPowerAutomate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="273" documentId="8_{C3D457DE-B0BD-4909-BD96-F53C67B8E24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72FD4149-D7B6-4AC9-B30D-421A62E3B492}"/>
+  <xr:revisionPtr revIDLastSave="274" documentId="8_{C3D457DE-B0BD-4909-BD96-F53C67B8E24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0E0CED4-9998-4842-AC49-333746B4723D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,13 +510,13 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" style="10" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>

--- a/MyFormInput.xlsx
+++ b/MyFormInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://startos-my.sharepoint.com/personal/ted_lasseter_startos_onmicrosoft_com/Documents/Documents/GIThub/DNCPowerAutomate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="274" documentId="8_{C3D457DE-B0BD-4909-BD96-F53C67B8E24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0E0CED4-9998-4842-AC49-333746B4723D}"/>
+  <xr:revisionPtr revIDLastSave="285" documentId="8_{C3D457DE-B0BD-4909-BD96-F53C67B8E24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{721B6359-A648-4549-9671-1DCBF4EE3977}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,15 +126,6 @@
     <t>973-933-4875</t>
   </si>
   <si>
-    <t>Tedmond</t>
-  </si>
-  <si>
-    <t>Lasseter</t>
-  </si>
-  <si>
-    <t>10721 Meridian Ave N</t>
-  </si>
-  <si>
     <t>409-C</t>
   </si>
   <si>
@@ -157,6 +148,15 @@
   </si>
   <si>
     <t>4/6/2022</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Hertz</t>
+  </si>
+  <si>
+    <t>35 SpaceNeedle DR</t>
   </si>
 </sst>
 </file>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,10 +596,10 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="5">
         <v>14</v>
@@ -632,25 +632,25 @@
         <v>10</v>
       </c>
       <c r="M2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>35</v>
       </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" t="s">
-        <v>38</v>
-      </c>
       <c r="S2" s="7">
-        <v>98133</v>
+        <v>98132</v>
       </c>
       <c r="T2" t="s">
         <v>24</v>
@@ -658,10 +658,10 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="5">
         <v>13</v>
@@ -694,25 +694,25 @@
         <v>10</v>
       </c>
       <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" t="s">
         <v>33</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>34</v>
       </c>
-      <c r="O3" t="s">
+      <c r="R3" t="s">
         <v>35</v>
       </c>
-      <c r="P3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" t="s">
-        <v>38</v>
-      </c>
       <c r="S3" s="7">
-        <v>98133</v>
+        <v>98132</v>
       </c>
       <c r="T3" t="s">
         <v>25</v>
@@ -720,10 +720,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="C4" s="5">
         <v>13</v>
@@ -756,28 +756,28 @@
         <v>10</v>
       </c>
       <c r="M4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" t="s">
         <v>33</v>
       </c>
-      <c r="N4" t="s">
+      <c r="Q4" t="s">
         <v>34</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
         <v>35</v>
       </c>
-      <c r="P4" t="s">
+      <c r="S4" s="7">
+        <v>98132</v>
+      </c>
+      <c r="T4" t="s">
         <v>36</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" t="s">
-        <v>38</v>
-      </c>
-      <c r="S4" s="7">
-        <v>98133</v>
-      </c>
-      <c r="T4" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
